--- a/RUTINAS/EJERCICIOS PRESUPUESTO/RESULTADOS/Muestra_Area.xlsx
+++ b/RUTINAS/EJERCICIOS PRESUPUESTO/RESULTADOS/Muestra_Area.xlsx
@@ -392,10 +392,10 @@
         <v>3.16</v>
       </c>
       <c r="D2" t="n">
-        <v>3200</v>
+        <v>395</v>
       </c>
       <c r="E2" t="n">
-        <v>35195</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>2.28</v>
       </c>
       <c r="D3" t="n">
-        <v>1113</v>
+        <v>332</v>
       </c>
       <c r="E3" t="n">
-        <v>12233</v>
+        <v>3649</v>
       </c>
     </row>
   </sheetData>
